--- a/data/predictions/gender/gay_marr/leveled/democrat.xlsx
+++ b/data/predictions/gender/gay_marr/leveled/democrat.xlsx
@@ -739,16 +739,16 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>-0.01155582014240046</v>
+        <v>0.03100858142153583</v>
       </c>
       <c r="D34">
         <v>0.07729982694668272</v>
       </c>
       <c r="G34">
-        <v>-0.008415357417984895</v>
+        <v>-0.01114983202242605</v>
       </c>
       <c r="I34">
-        <v>0.2705712436655227</v>
+        <v>0.3903653462792884</v>
       </c>
       <c r="J34">
         <v>0.4986926533384469</v>
@@ -759,16 +759,16 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>-0.06100338299855516</v>
+        <v>0.04856427309800988</v>
       </c>
       <c r="D35">
         <v>0.06740897590513627</v>
       </c>
       <c r="G35">
-        <v>-0.08744648441872109</v>
+        <v>-0.06514143073016061</v>
       </c>
       <c r="I35">
-        <v>0.3055870064678613</v>
+        <v>0.4283543234208406</v>
       </c>
       <c r="J35">
         <v>0.5357735589762672</v>
@@ -779,16 +779,16 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>-0.09078349297794716</v>
+        <v>-0.008126000006086646</v>
       </c>
       <c r="D36">
         <v>0.05550896117621299</v>
       </c>
       <c r="G36">
-        <v>-0.1545716960210621</v>
+        <v>-0.1229688864296949</v>
       </c>
       <c r="I36">
-        <v>0.3330442926325218</v>
+        <v>0.6026708720592726</v>
       </c>
       <c r="J36">
         <v>0.6310212407655358</v>
@@ -799,16 +799,16 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>-0.2298304333836655</v>
+        <v>-0.07923587463631707</v>
       </c>
       <c r="D37">
         <v>0.04387998599316358</v>
       </c>
       <c r="G37">
-        <v>-0.1921042243888685</v>
+        <v>-0.1271122664150893</v>
       </c>
       <c r="I37">
-        <v>0.3558364310506304</v>
+        <v>0.9018989441354329</v>
       </c>
       <c r="J37">
         <v>0.6654905225165579</v>
@@ -819,16 +819,16 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>-0.2465009812470405</v>
+        <v>-0.0709991195934362</v>
       </c>
       <c r="D38">
         <v>0.03221444712150628</v>
       </c>
       <c r="G38">
-        <v>-0.199470704049249</v>
+        <v>-0.1265828336557268</v>
       </c>
       <c r="I38">
-        <v>0.375749205737075</v>
+        <v>1.174690742421179</v>
       </c>
       <c r="J38">
         <v>0.68057835390129</v>
@@ -839,16 +839,16 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>-0.3134568574318147</v>
+        <v>-0.168852830058719</v>
       </c>
       <c r="D39">
         <v>0.02055384075266995</v>
       </c>
       <c r="G39">
-        <v>-0.1866063980900286</v>
+        <v>-0.1132045411090429</v>
       </c>
       <c r="I39">
-        <v>0.393884815808455</v>
+        <v>1.527209918298694</v>
       </c>
       <c r="J39">
         <v>0.7703092856473618</v>
